--- a/data/trans_media/dukeAFECT-Estudios-trans_media.xlsx
+++ b/data/trans_media/dukeAFECT-Estudios-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,98; 81,58</t>
+          <t>78,97; 81,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,56; 84,94</t>
+          <t>82,7; 84,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,55; 81,18</t>
+          <t>78,6; 81,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76,54; 80,23</t>
+          <t>76,52; 80,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,68; 79,23</t>
+          <t>76,75; 79,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,72; 83,72</t>
+          <t>81,68; 83,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,62; 79,2</t>
+          <t>76,51; 78,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>75,64; 78,31</t>
+          <t>75,69; 78,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78,17; 80,03</t>
+          <t>78,07; 79,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>82,53; 84,04</t>
+          <t>82,5; 83,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,75; 79,65</t>
+          <t>77,78; 79,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>76,48; 78,68</t>
+          <t>76,42; 78,59</t>
         </is>
       </c>
     </row>
@@ -864,37 +864,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,85; 87,42</t>
+          <t>85,78; 87,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,3; 87,74</t>
+          <t>86,35; 87,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,65; 83,19</t>
+          <t>81,58; 83,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,35; 86,61</t>
+          <t>84,36; 86,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,55; 85,39</t>
+          <t>83,5; 85,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,01; 85,65</t>
+          <t>84,02; 85,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,23; 82,71</t>
+          <t>81,28; 82,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,04; 86,26</t>
+          <t>85,04; 86,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,49; 86,57</t>
+          <t>85,52; 86,58</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81,71; 82,72</t>
+          <t>81,66; 82,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>83,24; 85,39</t>
+          <t>83,24; 85,34</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>84,9; 87,98</t>
+          <t>85,15; 88,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,37; 89,39</t>
+          <t>86,3; 89,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,99; 87,51</t>
+          <t>85,09; 87,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>86,35; 89,08</t>
+          <t>86,46; 89,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,57; 88,84</t>
+          <t>85,47; 88,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>88,23; 90,72</t>
+          <t>88,12; 90,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,31; 87,06</t>
+          <t>84,34; 87,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>87,99; 90,04</t>
+          <t>87,93; 90,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,77; 87,96</t>
+          <t>85,66; 87,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>87,6; 89,63</t>
+          <t>87,62; 89,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>85,11; 86,89</t>
+          <t>85,06; 86,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,65; 89,28</t>
+          <t>87,66; 89,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,05; 85,29</t>
+          <t>84,0; 85,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,74; 86,84</t>
+          <t>85,72; 86,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,93; 83,03</t>
+          <t>81,91; 83,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84,1; 85,71</t>
+          <t>83,96; 85,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,65; 83,08</t>
+          <t>81,7; 83,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,07; 85,21</t>
+          <t>84,09; 85,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,79; 82,02</t>
+          <t>80,8; 81,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>81,88; 84,11</t>
+          <t>81,96; 84,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,01; 83,98</t>
+          <t>83,04; 84,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,05; 85,88</t>
+          <t>85,04; 85,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81,5; 82,37</t>
+          <t>81,55; 82,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>83,21; 84,61</t>
+          <t>83,2; 84,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeAFECT-Estudios-trans_media.xlsx
+++ b/data/trans_media/dukeAFECT-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,97; 81,62</t>
+          <t>79,06; 81,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,7; 84,95</t>
+          <t>82,64; 84,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,6; 81,21</t>
+          <t>78,63; 81,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 79,16</t>
+          <t>76,78; 79,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>81,68; 83,7</t>
+          <t>81,83; 83,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,51; 78,98</t>
+          <t>76,49; 79,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78,07; 79,99</t>
+          <t>78,01; 79,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>82,5; 83,96</t>
+          <t>82,52; 84,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,78; 79,7</t>
+          <t>77,83; 79,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,78; 87,41</t>
+          <t>85,9; 87,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,35; 87,78</t>
+          <t>86,39; 87,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,58; 83,1</t>
+          <t>81,63; 83,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>83,5; 85,39</t>
+          <t>83,6; 85,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,02; 85,65</t>
+          <t>83,96; 85,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>81,28; 82,73</t>
+          <t>81,2; 82,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,04; 86,21</t>
+          <t>85,02; 86,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>85,52; 86,58</t>
+          <t>85,5; 86,57</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81,66; 82,72</t>
+          <t>81,65; 82,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,15; 88,11</t>
+          <t>85,06; 88,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,3; 89,45</t>
+          <t>86,26; 89,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,09; 87,58</t>
+          <t>85,1; 87,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,47; 88,8</t>
+          <t>85,5; 88,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>88,12; 90,63</t>
+          <t>88,18; 90,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>84,34; 87,08</t>
+          <t>84,28; 87,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>85,66; 87,86</t>
+          <t>85,59; 87,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>87,62; 89,64</t>
+          <t>87,56; 89,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>85,06; 86,9</t>
+          <t>85,02; 86,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,0; 85,33</t>
+          <t>84,02; 85,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,72; 86,81</t>
+          <t>85,7; 86,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>81,91; 83,04</t>
+          <t>81,92; 83,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,7; 83,09</t>
+          <t>81,67; 83,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,09; 85,23</t>
+          <t>84,07; 85,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>80,8; 81,99</t>
+          <t>80,79; 82,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,04; 84,02</t>
+          <t>83,01; 83,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>85,04; 85,93</t>
+          <t>85,03; 85,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>81,55; 82,36</t>
+          <t>81,54; 82,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
